--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.179395</v>
+        <v>0.9167996666666666</v>
       </c>
       <c r="H2">
-        <v>6.538185</v>
+        <v>2.750399</v>
       </c>
       <c r="I2">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="J2">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.822797666666666</v>
+        <v>6.799975</v>
       </c>
       <c r="N2">
-        <v>11.468393</v>
+        <v>20.399925</v>
       </c>
       <c r="O2">
-        <v>0.170387229893941</v>
+        <v>0.2675773660825449</v>
       </c>
       <c r="P2">
-        <v>0.170387229893941</v>
+        <v>0.2675773660825449</v>
       </c>
       <c r="Q2">
-        <v>8.331386120745</v>
+        <v>6.234214813341666</v>
       </c>
       <c r="R2">
-        <v>74.98247508670499</v>
+        <v>56.107933320075</v>
       </c>
       <c r="S2">
-        <v>0.08255293638777644</v>
+        <v>0.0758168954098233</v>
       </c>
       <c r="T2">
-        <v>0.08255293638777646</v>
+        <v>0.0758168954098233</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.179395</v>
+        <v>0.9167996666666666</v>
       </c>
       <c r="H3">
-        <v>6.538185</v>
+        <v>2.750399</v>
       </c>
       <c r="I3">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="J3">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.598757</v>
       </c>
       <c r="O3">
-        <v>0.3208952095016597</v>
+        <v>0.283301948841328</v>
       </c>
       <c r="P3">
-        <v>0.3208952095016597</v>
+        <v>0.283301948841328</v>
       </c>
       <c r="Q3">
-        <v>15.690741004005</v>
+        <v>6.60057773933811</v>
       </c>
       <c r="R3">
-        <v>141.216669036045</v>
+        <v>59.405199654043</v>
       </c>
       <c r="S3">
-        <v>0.1554743382683207</v>
+        <v>0.08027238827844656</v>
       </c>
       <c r="T3">
-        <v>0.1554743382683207</v>
+        <v>0.08027238827844656</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.179395</v>
+        <v>0.9167996666666666</v>
       </c>
       <c r="H4">
-        <v>6.538185</v>
+        <v>2.750399</v>
       </c>
       <c r="I4">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="J4">
-        <v>0.4845018986408914</v>
+        <v>0.2833456974325495</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>34.24067</v>
       </c>
       <c r="O4">
-        <v>0.5087175606043992</v>
+        <v>0.4491206850761271</v>
       </c>
       <c r="P4">
-        <v>0.5087175606043994</v>
+        <v>0.4491206850761271</v>
       </c>
       <c r="Q4">
-        <v>24.87464833155</v>
+        <v>10.46394494748111</v>
       </c>
       <c r="R4">
-        <v>223.87183498395</v>
+        <v>94.17550452732999</v>
       </c>
       <c r="S4">
-        <v>0.2464746239847941</v>
+        <v>0.1272564137442797</v>
       </c>
       <c r="T4">
-        <v>0.2464746239847942</v>
+        <v>0.1272564137442797</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.204665</v>
       </c>
       <c r="I5">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="J5">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.822797666666666</v>
+        <v>6.799975</v>
       </c>
       <c r="N5">
-        <v>11.468393</v>
+        <v>20.399925</v>
       </c>
       <c r="O5">
-        <v>0.170387229893941</v>
+        <v>0.2675773660825449</v>
       </c>
       <c r="P5">
-        <v>0.170387229893941</v>
+        <v>0.2675773660825449</v>
       </c>
       <c r="Q5">
-        <v>2.809329405927222</v>
+        <v>4.997222294458333</v>
       </c>
       <c r="R5">
-        <v>25.283964653345</v>
+        <v>44.975000650125</v>
       </c>
       <c r="S5">
-        <v>0.02783671148818168</v>
+        <v>0.06077331169721123</v>
       </c>
       <c r="T5">
-        <v>0.02783671148818168</v>
+        <v>0.06077331169721124</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.204665</v>
       </c>
       <c r="I6">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="J6">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.598757</v>
       </c>
       <c r="O6">
-        <v>0.3208952095016597</v>
+        <v>0.283301948841328</v>
       </c>
       <c r="P6">
-        <v>0.3208952095016597</v>
+        <v>0.283301948841328</v>
       </c>
       <c r="Q6">
         <v>5.290891511267222</v>
@@ -818,10 +818,10 @@
         <v>47.61802360140499</v>
       </c>
       <c r="S6">
-        <v>0.05242568571833425</v>
+        <v>0.0643447459455524</v>
       </c>
       <c r="T6">
-        <v>0.05242568571833426</v>
+        <v>0.0643447459455524</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.204665</v>
       </c>
       <c r="I7">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="J7">
-        <v>0.1633732264179005</v>
+        <v>0.2271242616180895</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>34.24067</v>
       </c>
       <c r="O7">
-        <v>0.5087175606043992</v>
+        <v>0.4491206850761271</v>
       </c>
       <c r="P7">
-        <v>0.5087175606043994</v>
+        <v>0.4491206850761271</v>
       </c>
       <c r="Q7">
         <v>8.387689636172221</v>
@@ -880,10 +880,10 @@
         <v>75.48920672555001</v>
       </c>
       <c r="S7">
-        <v>0.08311082921138452</v>
+        <v>0.1020062039753259</v>
       </c>
       <c r="T7">
-        <v>0.08311082921138456</v>
+        <v>0.1020062039753259</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.583934333333333</v>
+        <v>1.583934333333334</v>
       </c>
       <c r="H8">
-        <v>4.751803</v>
+        <v>4.751803000000001</v>
       </c>
       <c r="I8">
-        <v>0.3521248749412083</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="J8">
-        <v>0.3521248749412082</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.822797666666666</v>
+        <v>6.799975</v>
       </c>
       <c r="N8">
-        <v>11.468393</v>
+        <v>20.399925</v>
       </c>
       <c r="O8">
-        <v>0.170387229893941</v>
+        <v>0.2675773660825449</v>
       </c>
       <c r="P8">
-        <v>0.170387229893941</v>
+        <v>0.2675773660825449</v>
       </c>
       <c r="Q8">
-        <v>6.055060473619888</v>
+        <v>10.77071386830833</v>
       </c>
       <c r="R8">
-        <v>54.495544262579</v>
+        <v>96.93642481477501</v>
       </c>
       <c r="S8">
-        <v>0.05999758201798287</v>
+        <v>0.1309871589755103</v>
       </c>
       <c r="T8">
-        <v>0.05999758201798287</v>
+        <v>0.1309871589755103</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.583934333333333</v>
+        <v>1.583934333333334</v>
       </c>
       <c r="H9">
-        <v>4.751803</v>
+        <v>4.751803000000001</v>
       </c>
       <c r="I9">
-        <v>0.3521248749412083</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="J9">
-        <v>0.3521248749412082</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.598757</v>
       </c>
       <c r="O9">
-        <v>0.3208952095016597</v>
+        <v>0.283301948841328</v>
       </c>
       <c r="P9">
-        <v>0.3208952095016597</v>
+        <v>0.283301948841328</v>
       </c>
       <c r="Q9">
         <v>11.40367092320789</v>
@@ -1004,10 +1004,10 @@
         <v>102.633038308871</v>
       </c>
       <c r="S9">
-        <v>0.1129951855150047</v>
+        <v>0.1386848146173291</v>
       </c>
       <c r="T9">
-        <v>0.1129951855150047</v>
+        <v>0.1386848146173291</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.583934333333333</v>
+        <v>1.583934333333334</v>
       </c>
       <c r="H10">
-        <v>4.751803</v>
+        <v>4.751803000000001</v>
       </c>
       <c r="I10">
-        <v>0.3521248749412083</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="J10">
-        <v>0.3521248749412082</v>
+        <v>0.4895300409493609</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>34.24067</v>
       </c>
       <c r="O10">
-        <v>0.5087175606043992</v>
+        <v>0.4491206850761271</v>
       </c>
       <c r="P10">
-        <v>0.5087175606043994</v>
+        <v>0.4491206850761271</v>
       </c>
       <c r="Q10">
         <v>18.07832426977889</v>
@@ -1066,10 +1066,10 @@
         <v>162.70491842801</v>
       </c>
       <c r="S10">
-        <v>0.1791321074082206</v>
+        <v>0.2198580673565216</v>
       </c>
       <c r="T10">
-        <v>0.1791321074082207</v>
+        <v>0.2198580673565216</v>
       </c>
     </row>
   </sheetData>
